--- a/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
+++ b/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A841B55-2367-49F7-9948-4E82C95C16A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495A8E6A-5C48-4F62-9BCA-49969A537ABF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3192,7 +3192,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="91" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J541"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92:C541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10551,7 +10551,7 @@
         <v>216</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>217</v>
@@ -10631,7 +10631,7 @@
         <v>218</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>219</v>
@@ -10711,7 +10711,7 @@
         <v>220</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>221</v>
@@ -11031,7 +11031,7 @@
         <v>228</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>229</v>
@@ -11111,7 +11111,7 @@
         <v>230</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>231</v>
@@ -11191,7 +11191,7 @@
         <v>232</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>233</v>
@@ -19011,7 +19011,7 @@
         <v>216</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>339</v>
@@ -19091,7 +19091,7 @@
         <v>218</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>340</v>
@@ -19171,7 +19171,7 @@
         <v>220</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>341</v>
@@ -19491,7 +19491,7 @@
         <v>228</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>345</v>
@@ -19571,7 +19571,7 @@
         <v>230</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>346</v>
@@ -19651,7 +19651,7 @@
         <v>232</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>347</v>
@@ -27471,7 +27471,7 @@
         <v>216</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>447</v>
@@ -27551,7 +27551,7 @@
         <v>218</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>448</v>
@@ -27631,7 +27631,7 @@
         <v>220</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>449</v>
@@ -27951,7 +27951,7 @@
         <v>228</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>453</v>
@@ -28031,7 +28031,7 @@
         <v>230</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>454</v>
@@ -28111,7 +28111,7 @@
         <v>232</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>455</v>
@@ -35931,7 +35931,7 @@
         <v>216</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>555</v>
@@ -36011,7 +36011,7 @@
         <v>218</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>556</v>
@@ -36091,7 +36091,7 @@
         <v>220</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>557</v>
@@ -36411,7 +36411,7 @@
         <v>228</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>561</v>
@@ -36491,7 +36491,7 @@
         <v>230</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>562</v>
@@ -36571,7 +36571,7 @@
         <v>232</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>563</v>
@@ -44391,7 +44391,7 @@
         <v>216</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D527" s="4" t="s">
         <v>663</v>
@@ -44471,7 +44471,7 @@
         <v>218</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D528" s="4" t="s">
         <v>664</v>
@@ -44551,7 +44551,7 @@
         <v>220</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D529" s="4" t="s">
         <v>665</v>
@@ -44871,7 +44871,7 @@
         <v>228</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D533" s="4" t="s">
         <v>669</v>
@@ -44951,7 +44951,7 @@
         <v>230</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D534" s="4" t="s">
         <v>670</v>
@@ -45031,7 +45031,7 @@
         <v>232</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D535" s="4" t="s">
         <v>671</v>

--- a/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
+++ b/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495A8E6A-5C48-4F62-9BCA-49969A537ABF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DC787C-1556-4DAD-8BE7-C43BEBE8D05C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11996" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11996" uniqueCount="682">
   <si>
     <t>Test Case</t>
   </si>
@@ -2816,6 +2816,9 @@
   </si>
   <si>
     <t>january</t>
+  </si>
+  <si>
+    <t>december</t>
   </si>
 </sst>
 </file>
@@ -3192,7 +3195,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="91" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92:C541"/>
+      <selection pane="bottomLeft" activeCell="G200" sqref="G200:G541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10311,7 +10314,7 @@
         <v>210</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>211</v>
@@ -10391,7 +10394,7 @@
         <v>212</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>213</v>
@@ -10471,7 +10474,7 @@
         <v>214</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>215</v>
@@ -10791,7 +10794,7 @@
         <v>222</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>223</v>
@@ -10871,7 +10874,7 @@
         <v>224</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>225</v>
@@ -10951,7 +10954,7 @@
         <v>226</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>227</v>
@@ -11271,7 +11274,7 @@
         <v>234</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>235</v>
@@ -11351,7 +11354,7 @@
         <v>236</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>237</v>
@@ -11431,7 +11434,7 @@
         <v>238</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>239</v>
@@ -11511,7 +11514,7 @@
         <v>240</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>241</v>
@@ -11591,7 +11594,7 @@
         <v>242</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>243</v>
@@ -11671,7 +11674,7 @@
         <v>244</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>245</v>
@@ -18783,7 +18786,7 @@
         <v>678</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H200" s="4" t="s">
         <v>25</v>
@@ -18851,7 +18854,7 @@
         <v>212</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>337</v>
@@ -18863,7 +18866,7 @@
         <v>678</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H201" s="4" t="s">
         <v>25</v>
@@ -18931,7 +18934,7 @@
         <v>214</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>338</v>
@@ -18943,7 +18946,7 @@
         <v>678</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H202" s="4" t="s">
         <v>25</v>
@@ -19251,7 +19254,7 @@
         <v>222</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>342</v>
@@ -19263,7 +19266,7 @@
         <v>678</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H206" s="4" t="s">
         <v>25</v>
@@ -19331,7 +19334,7 @@
         <v>224</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>343</v>
@@ -19343,7 +19346,7 @@
         <v>678</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H207" s="4" t="s">
         <v>25</v>
@@ -19411,7 +19414,7 @@
         <v>226</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>344</v>
@@ -19423,7 +19426,7 @@
         <v>678</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H208" s="4" t="s">
         <v>25</v>
@@ -19731,7 +19734,7 @@
         <v>234</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>348</v>
@@ -19743,7 +19746,7 @@
         <v>678</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H212" s="4" t="s">
         <v>25</v>
@@ -19811,7 +19814,7 @@
         <v>236</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>349</v>
@@ -19823,7 +19826,7 @@
         <v>678</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H213" s="4" t="s">
         <v>25</v>
@@ -19891,7 +19894,7 @@
         <v>238</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>350</v>
@@ -19903,7 +19906,7 @@
         <v>678</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H214" s="4" t="s">
         <v>25</v>
@@ -19971,7 +19974,7 @@
         <v>240</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>351</v>
@@ -19983,7 +19986,7 @@
         <v>678</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H215" s="4" t="s">
         <v>25</v>
@@ -20051,7 +20054,7 @@
         <v>242</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>352</v>
@@ -20063,7 +20066,7 @@
         <v>678</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H216" s="4" t="s">
         <v>25</v>
@@ -20131,7 +20134,7 @@
         <v>244</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>353</v>
@@ -20143,7 +20146,7 @@
         <v>678</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H217" s="4" t="s">
         <v>25</v>
@@ -27231,7 +27234,7 @@
         <v>210</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>444</v>
@@ -27243,7 +27246,7 @@
         <v>678</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H308" s="4" t="s">
         <v>25</v>
@@ -27311,7 +27314,7 @@
         <v>212</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>445</v>
@@ -27323,7 +27326,7 @@
         <v>678</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H309" s="4" t="s">
         <v>25</v>
@@ -27391,7 +27394,7 @@
         <v>214</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>446</v>
@@ -27403,7 +27406,7 @@
         <v>678</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H310" s="4" t="s">
         <v>25</v>
@@ -27711,7 +27714,7 @@
         <v>222</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>450</v>
@@ -27723,7 +27726,7 @@
         <v>678</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H314" s="4" t="s">
         <v>25</v>
@@ -27791,7 +27794,7 @@
         <v>224</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>451</v>
@@ -27803,7 +27806,7 @@
         <v>678</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H315" s="4" t="s">
         <v>25</v>
@@ -27871,7 +27874,7 @@
         <v>226</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>452</v>
@@ -27883,7 +27886,7 @@
         <v>678</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H316" s="4" t="s">
         <v>25</v>
@@ -28191,7 +28194,7 @@
         <v>234</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>456</v>
@@ -28203,7 +28206,7 @@
         <v>678</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H320" s="4" t="s">
         <v>25</v>
@@ -28271,7 +28274,7 @@
         <v>236</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>457</v>
@@ -28283,7 +28286,7 @@
         <v>678</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H321" s="4" t="s">
         <v>25</v>
@@ -28351,7 +28354,7 @@
         <v>238</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>458</v>
@@ -28363,7 +28366,7 @@
         <v>678</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H322" s="4" t="s">
         <v>25</v>
@@ -28431,7 +28434,7 @@
         <v>240</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>459</v>
@@ -28443,7 +28446,7 @@
         <v>678</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H323" s="4" t="s">
         <v>25</v>
@@ -28511,7 +28514,7 @@
         <v>242</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>460</v>
@@ -28523,7 +28526,7 @@
         <v>678</v>
       </c>
       <c r="G324" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H324" s="4" t="s">
         <v>25</v>
@@ -28591,7 +28594,7 @@
         <v>244</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>461</v>
@@ -28603,7 +28606,7 @@
         <v>678</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H325" s="4" t="s">
         <v>25</v>
@@ -35691,7 +35694,7 @@
         <v>210</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>552</v>
@@ -35703,7 +35706,7 @@
         <v>678</v>
       </c>
       <c r="G416" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H416" s="4" t="s">
         <v>25</v>
@@ -35771,7 +35774,7 @@
         <v>212</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>553</v>
@@ -35783,7 +35786,7 @@
         <v>678</v>
       </c>
       <c r="G417" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H417" s="4" t="s">
         <v>25</v>
@@ -35851,7 +35854,7 @@
         <v>214</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>554</v>
@@ -35863,7 +35866,7 @@
         <v>678</v>
       </c>
       <c r="G418" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H418" s="4" t="s">
         <v>25</v>
@@ -36171,7 +36174,7 @@
         <v>222</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>558</v>
@@ -36183,7 +36186,7 @@
         <v>678</v>
       </c>
       <c r="G422" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H422" s="4" t="s">
         <v>25</v>
@@ -36251,7 +36254,7 @@
         <v>224</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>559</v>
@@ -36263,7 +36266,7 @@
         <v>678</v>
       </c>
       <c r="G423" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H423" s="4" t="s">
         <v>25</v>
@@ -36331,7 +36334,7 @@
         <v>226</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>560</v>
@@ -36343,7 +36346,7 @@
         <v>678</v>
       </c>
       <c r="G424" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H424" s="4" t="s">
         <v>25</v>
@@ -36651,7 +36654,7 @@
         <v>234</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>564</v>
@@ -36663,7 +36666,7 @@
         <v>678</v>
       </c>
       <c r="G428" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H428" s="4" t="s">
         <v>25</v>
@@ -36731,7 +36734,7 @@
         <v>236</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>565</v>
@@ -36743,7 +36746,7 @@
         <v>678</v>
       </c>
       <c r="G429" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H429" s="4" t="s">
         <v>25</v>
@@ -36811,7 +36814,7 @@
         <v>238</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>566</v>
@@ -36823,7 +36826,7 @@
         <v>678</v>
       </c>
       <c r="G430" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H430" s="4" t="s">
         <v>25</v>
@@ -36891,7 +36894,7 @@
         <v>240</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>567</v>
@@ -36903,7 +36906,7 @@
         <v>678</v>
       </c>
       <c r="G431" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H431" s="4" t="s">
         <v>25</v>
@@ -36971,7 +36974,7 @@
         <v>242</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>568</v>
@@ -36983,7 +36986,7 @@
         <v>678</v>
       </c>
       <c r="G432" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H432" s="4" t="s">
         <v>25</v>
@@ -37051,7 +37054,7 @@
         <v>244</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D433" s="4" t="s">
         <v>569</v>
@@ -37063,7 +37066,7 @@
         <v>678</v>
       </c>
       <c r="G433" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H433" s="4" t="s">
         <v>25</v>
@@ -44151,7 +44154,7 @@
         <v>210</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D524" s="4" t="s">
         <v>660</v>
@@ -44163,7 +44166,7 @@
         <v>678</v>
       </c>
       <c r="G524" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H524" s="4" t="s">
         <v>25</v>
@@ -44231,7 +44234,7 @@
         <v>212</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D525" s="4" t="s">
         <v>661</v>
@@ -44243,7 +44246,7 @@
         <v>678</v>
       </c>
       <c r="G525" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H525" s="4" t="s">
         <v>25</v>
@@ -44311,7 +44314,7 @@
         <v>214</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D526" s="4" t="s">
         <v>662</v>
@@ -44323,7 +44326,7 @@
         <v>678</v>
       </c>
       <c r="G526" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H526" s="4" t="s">
         <v>25</v>
@@ -44631,7 +44634,7 @@
         <v>222</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D530" s="4" t="s">
         <v>666</v>
@@ -44643,7 +44646,7 @@
         <v>678</v>
       </c>
       <c r="G530" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H530" s="4" t="s">
         <v>25</v>
@@ -44711,7 +44714,7 @@
         <v>224</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D531" s="4" t="s">
         <v>667</v>
@@ -44723,7 +44726,7 @@
         <v>678</v>
       </c>
       <c r="G531" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H531" s="4" t="s">
         <v>25</v>
@@ -44791,7 +44794,7 @@
         <v>226</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D532" s="4" t="s">
         <v>668</v>
@@ -44803,7 +44806,7 @@
         <v>678</v>
       </c>
       <c r="G532" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H532" s="4" t="s">
         <v>25</v>
@@ -45111,7 +45114,7 @@
         <v>234</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D536" s="4" t="s">
         <v>672</v>
@@ -45123,7 +45126,7 @@
         <v>678</v>
       </c>
       <c r="G536" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H536" s="4" t="s">
         <v>25</v>
@@ -45191,7 +45194,7 @@
         <v>236</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D537" s="4" t="s">
         <v>673</v>
@@ -45203,7 +45206,7 @@
         <v>678</v>
       </c>
       <c r="G537" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H537" s="4" t="s">
         <v>25</v>
@@ -45271,7 +45274,7 @@
         <v>238</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D538" s="4" t="s">
         <v>674</v>
@@ -45283,7 +45286,7 @@
         <v>678</v>
       </c>
       <c r="G538" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H538" s="4" t="s">
         <v>25</v>
@@ -45351,7 +45354,7 @@
         <v>240</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D539" s="4" t="s">
         <v>675</v>
@@ -45363,7 +45366,7 @@
         <v>678</v>
       </c>
       <c r="G539" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H539" s="4" t="s">
         <v>25</v>
@@ -45431,7 +45434,7 @@
         <v>242</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D540" s="4" t="s">
         <v>676</v>
@@ -45443,7 +45446,7 @@
         <v>678</v>
       </c>
       <c r="G540" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H540" s="4" t="s">
         <v>25</v>
@@ -45511,7 +45514,7 @@
         <v>244</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D541" s="4" t="s">
         <v>677</v>
@@ -45523,7 +45526,7 @@
         <v>678</v>
       </c>
       <c r="G541" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H541" s="4" t="s">
         <v>25</v>

--- a/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
+++ b/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DC787C-1556-4DAD-8BE7-C43BEBE8D05C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA5909A-8D50-4537-98ED-F1A8DC255E3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3195,7 +3195,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="91" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G200" sqref="G200:G541"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92:C541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10314,7 +10314,7 @@
         <v>210</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>211</v>
@@ -10394,7 +10394,7 @@
         <v>212</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>213</v>
@@ -10474,7 +10474,7 @@
         <v>214</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>215</v>
@@ -10794,7 +10794,7 @@
         <v>222</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>223</v>
@@ -10874,7 +10874,7 @@
         <v>224</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>225</v>
@@ -10954,7 +10954,7 @@
         <v>226</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>227</v>
@@ -11274,7 +11274,7 @@
         <v>234</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>235</v>
@@ -11354,7 +11354,7 @@
         <v>236</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>237</v>
@@ -11434,7 +11434,7 @@
         <v>238</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>239</v>
@@ -11514,7 +11514,7 @@
         <v>240</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>241</v>
@@ -11594,7 +11594,7 @@
         <v>242</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>243</v>
@@ -11674,7 +11674,7 @@
         <v>244</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>245</v>
@@ -18854,7 +18854,7 @@
         <v>212</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>337</v>
@@ -18934,7 +18934,7 @@
         <v>214</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>338</v>
@@ -19254,7 +19254,7 @@
         <v>222</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>342</v>
@@ -19334,7 +19334,7 @@
         <v>224</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>343</v>
@@ -19414,7 +19414,7 @@
         <v>226</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>344</v>
@@ -19734,7 +19734,7 @@
         <v>234</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>348</v>
@@ -19814,7 +19814,7 @@
         <v>236</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>349</v>
@@ -19894,7 +19894,7 @@
         <v>238</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>350</v>
@@ -19974,7 +19974,7 @@
         <v>240</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>351</v>
@@ -20054,7 +20054,7 @@
         <v>242</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>352</v>
@@ -20134,7 +20134,7 @@
         <v>244</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>353</v>
@@ -27234,7 +27234,7 @@
         <v>210</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>444</v>
@@ -27314,7 +27314,7 @@
         <v>212</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>445</v>
@@ -27394,7 +27394,7 @@
         <v>214</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>446</v>
@@ -27714,7 +27714,7 @@
         <v>222</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>450</v>
@@ -27794,7 +27794,7 @@
         <v>224</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>451</v>
@@ -27874,7 +27874,7 @@
         <v>226</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>452</v>
@@ -28194,7 +28194,7 @@
         <v>234</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>456</v>
@@ -28274,7 +28274,7 @@
         <v>236</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>457</v>
@@ -28354,7 +28354,7 @@
         <v>238</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>458</v>
@@ -28434,7 +28434,7 @@
         <v>240</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>459</v>
@@ -28514,7 +28514,7 @@
         <v>242</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>460</v>
@@ -28594,7 +28594,7 @@
         <v>244</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>461</v>
@@ -35694,7 +35694,7 @@
         <v>210</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>552</v>
@@ -35774,7 +35774,7 @@
         <v>212</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>553</v>
@@ -35854,7 +35854,7 @@
         <v>214</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>554</v>
@@ -36174,7 +36174,7 @@
         <v>222</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>558</v>
@@ -36254,7 +36254,7 @@
         <v>224</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>559</v>
@@ -36334,7 +36334,7 @@
         <v>226</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>560</v>
@@ -36654,7 +36654,7 @@
         <v>234</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>564</v>
@@ -36734,7 +36734,7 @@
         <v>236</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>565</v>
@@ -36814,7 +36814,7 @@
         <v>238</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>566</v>
@@ -36894,7 +36894,7 @@
         <v>240</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>567</v>
@@ -36974,7 +36974,7 @@
         <v>242</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>568</v>
@@ -37054,7 +37054,7 @@
         <v>244</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D433" s="4" t="s">
         <v>569</v>
@@ -44154,7 +44154,7 @@
         <v>210</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D524" s="4" t="s">
         <v>660</v>
@@ -44234,7 +44234,7 @@
         <v>212</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D525" s="4" t="s">
         <v>661</v>
@@ -44314,7 +44314,7 @@
         <v>214</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D526" s="4" t="s">
         <v>662</v>
@@ -44634,7 +44634,7 @@
         <v>222</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D530" s="4" t="s">
         <v>666</v>
@@ -44714,7 +44714,7 @@
         <v>224</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D531" s="4" t="s">
         <v>667</v>
@@ -44794,7 +44794,7 @@
         <v>226</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D532" s="4" t="s">
         <v>668</v>
@@ -45114,7 +45114,7 @@
         <v>234</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D536" s="4" t="s">
         <v>672</v>
@@ -45194,7 +45194,7 @@
         <v>236</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D537" s="4" t="s">
         <v>673</v>
@@ -45274,7 +45274,7 @@
         <v>238</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D538" s="4" t="s">
         <v>674</v>
@@ -45354,7 +45354,7 @@
         <v>240</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D539" s="4" t="s">
         <v>675</v>
@@ -45434,7 +45434,7 @@
         <v>242</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D540" s="4" t="s">
         <v>676</v>
@@ -45514,7 +45514,7 @@
         <v>244</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D541" s="4" t="s">
         <v>677</v>

--- a/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
+++ b/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA5909A-8D50-4537-98ED-F1A8DC255E3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70265055-C01B-4550-BE0D-A6AB38293915}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2818,7 +2818,7 @@
     <t>january</t>
   </si>
   <si>
-    <t>december</t>
+    <t>november</t>
   </si>
 </sst>
 </file>
@@ -3195,7 +3195,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="91" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92:C541"/>
+      <selection pane="bottomLeft" activeCell="G92" sqref="G92:G541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10326,7 +10326,7 @@
         <v>678</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>25</v>
@@ -10406,7 +10406,7 @@
         <v>678</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>25</v>
@@ -10486,7 +10486,7 @@
         <v>678</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>25</v>
@@ -10806,7 +10806,7 @@
         <v>678</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>25</v>
@@ -10886,7 +10886,7 @@
         <v>678</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>25</v>
@@ -10966,7 +10966,7 @@
         <v>678</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>25</v>
@@ -11286,7 +11286,7 @@
         <v>678</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>25</v>
@@ -11366,7 +11366,7 @@
         <v>678</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>25</v>
@@ -11446,7 +11446,7 @@
         <v>678</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>25</v>
@@ -11526,7 +11526,7 @@
         <v>678</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>25</v>
@@ -11606,7 +11606,7 @@
         <v>678</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>25</v>
@@ -11686,7 +11686,7 @@
         <v>678</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>25</v>

--- a/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
+++ b/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70265055-C01B-4550-BE0D-A6AB38293915}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5945FF4C-D0B8-443E-899C-AE223B1567E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3195,7 +3195,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="91" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G92" sqref="G92:G541"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92:C541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18766,7 +18766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:26" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" ht="303.60000000000002" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>21</v>
       </c>
@@ -18774,7 +18774,7 @@
         <v>210</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>336</v>
@@ -18846,7 +18846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:26" ht="356.4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" ht="356.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>21</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>212</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>337</v>
@@ -18926,7 +18926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:26" ht="356.4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" ht="356.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>21</v>
       </c>
@@ -18934,7 +18934,7 @@
         <v>214</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>338</v>
@@ -19246,7 +19246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="206" spans="1:26" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" ht="303.60000000000002" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>21</v>
       </c>
@@ -19254,7 +19254,7 @@
         <v>222</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>342</v>
@@ -19326,7 +19326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:26" ht="356.4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" ht="356.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>21</v>
       </c>
@@ -19334,7 +19334,7 @@
         <v>224</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>343</v>
@@ -19406,7 +19406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:26" ht="356.4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" ht="356.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>21</v>
       </c>
@@ -19414,7 +19414,7 @@
         <v>226</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>344</v>
@@ -19726,7 +19726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:26" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" ht="303.60000000000002" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>21</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>234</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>348</v>
@@ -19806,7 +19806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:26" ht="356.4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" ht="356.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>21</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>236</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>349</v>
@@ -19886,7 +19886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:26" ht="356.4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" ht="356.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>21</v>
       </c>
@@ -19894,7 +19894,7 @@
         <v>238</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>350</v>
@@ -19966,7 +19966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:26" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" ht="303.60000000000002" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>21</v>
       </c>
@@ -19974,7 +19974,7 @@
         <v>240</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>351</v>
@@ -20046,7 +20046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:26" ht="356.4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" ht="356.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>21</v>
       </c>
@@ -20054,7 +20054,7 @@
         <v>242</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>352</v>
@@ -20126,7 +20126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:26" ht="356.4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" ht="356.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>21</v>
       </c>
@@ -20134,7 +20134,7 @@
         <v>244</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>353</v>
@@ -45587,20 +45587,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z541" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A1:Z541" xr:uid="{F1D46722-0C8D-499B-893C-E9A6DFDC7AEE}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="custom leave cycle"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="9">
       <filters>
         <filter val="No"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="16">
+    <filterColumn colId="25">
       <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="17">
-      <filters>
-        <filter val="Yes"/>
+        <filter val="No"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
+++ b/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5945FF4C-D0B8-443E-899C-AE223B1567E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A758A497-A60E-430F-8B7B-099332ECFB33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11996" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11996" uniqueCount="683">
   <si>
     <t>Test Case</t>
   </si>
@@ -2819,6 +2819,9 @@
   </si>
   <si>
     <t>november</t>
+  </si>
+  <si>
+    <t>october</t>
   </si>
 </sst>
 </file>
@@ -3195,7 +3198,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="91" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92:C541"/>
+      <selection pane="bottomLeft" activeCell="H541" sqref="H541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10326,7 +10329,7 @@
         <v>678</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>25</v>
@@ -10406,7 +10409,7 @@
         <v>678</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>25</v>
@@ -10486,7 +10489,7 @@
         <v>678</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>25</v>
@@ -10806,7 +10809,7 @@
         <v>678</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>25</v>
@@ -10886,7 +10889,7 @@
         <v>678</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>25</v>
@@ -10966,7 +10969,7 @@
         <v>678</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>25</v>
@@ -11286,7 +11289,7 @@
         <v>678</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>25</v>
@@ -11366,7 +11369,7 @@
         <v>678</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>25</v>
@@ -11446,7 +11449,7 @@
         <v>678</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>25</v>
@@ -11526,7 +11529,7 @@
         <v>678</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>25</v>
@@ -11606,7 +11609,7 @@
         <v>678</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>25</v>
@@ -11686,7 +11689,7 @@
         <v>678</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>25</v>
@@ -27246,7 +27249,7 @@
         <v>678</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H308" s="4" t="s">
         <v>25</v>
@@ -27326,7 +27329,7 @@
         <v>678</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H309" s="4" t="s">
         <v>25</v>
@@ -27406,7 +27409,7 @@
         <v>678</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H310" s="4" t="s">
         <v>25</v>
@@ -27726,7 +27729,7 @@
         <v>678</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H314" s="4" t="s">
         <v>25</v>
@@ -27806,7 +27809,7 @@
         <v>678</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H315" s="4" t="s">
         <v>25</v>
@@ -27886,7 +27889,7 @@
         <v>678</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H316" s="4" t="s">
         <v>25</v>
@@ -28206,7 +28209,7 @@
         <v>678</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H320" s="4" t="s">
         <v>25</v>
@@ -28286,7 +28289,7 @@
         <v>678</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H321" s="4" t="s">
         <v>25</v>
@@ -28366,7 +28369,7 @@
         <v>678</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H322" s="4" t="s">
         <v>25</v>
@@ -28446,7 +28449,7 @@
         <v>678</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H323" s="4" t="s">
         <v>25</v>
@@ -28526,7 +28529,7 @@
         <v>678</v>
       </c>
       <c r="G324" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H324" s="4" t="s">
         <v>25</v>
@@ -28606,7 +28609,7 @@
         <v>678</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H325" s="4" t="s">
         <v>25</v>
@@ -35706,7 +35709,7 @@
         <v>678</v>
       </c>
       <c r="G416" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H416" s="4" t="s">
         <v>25</v>
@@ -35786,7 +35789,7 @@
         <v>678</v>
       </c>
       <c r="G417" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H417" s="4" t="s">
         <v>25</v>
@@ -35866,7 +35869,7 @@
         <v>678</v>
       </c>
       <c r="G418" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H418" s="4" t="s">
         <v>25</v>
@@ -36186,7 +36189,7 @@
         <v>678</v>
       </c>
       <c r="G422" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H422" s="4" t="s">
         <v>25</v>
@@ -36266,7 +36269,7 @@
         <v>678</v>
       </c>
       <c r="G423" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H423" s="4" t="s">
         <v>25</v>
@@ -36346,7 +36349,7 @@
         <v>678</v>
       </c>
       <c r="G424" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H424" s="4" t="s">
         <v>25</v>
@@ -36666,7 +36669,7 @@
         <v>678</v>
       </c>
       <c r="G428" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H428" s="4" t="s">
         <v>25</v>
@@ -36746,7 +36749,7 @@
         <v>678</v>
       </c>
       <c r="G429" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H429" s="4" t="s">
         <v>25</v>
@@ -36826,7 +36829,7 @@
         <v>678</v>
       </c>
       <c r="G430" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H430" s="4" t="s">
         <v>25</v>
@@ -36906,7 +36909,7 @@
         <v>678</v>
       </c>
       <c r="G431" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H431" s="4" t="s">
         <v>25</v>
@@ -36986,7 +36989,7 @@
         <v>678</v>
       </c>
       <c r="G432" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H432" s="4" t="s">
         <v>25</v>
@@ -37066,7 +37069,7 @@
         <v>678</v>
       </c>
       <c r="G433" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H433" s="4" t="s">
         <v>25</v>
@@ -44166,7 +44169,7 @@
         <v>678</v>
       </c>
       <c r="G524" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H524" s="4" t="s">
         <v>25</v>
@@ -44246,7 +44249,7 @@
         <v>678</v>
       </c>
       <c r="G525" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H525" s="4" t="s">
         <v>25</v>
@@ -44326,7 +44329,7 @@
         <v>678</v>
       </c>
       <c r="G526" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H526" s="4" t="s">
         <v>25</v>
@@ -44646,7 +44649,7 @@
         <v>678</v>
       </c>
       <c r="G530" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H530" s="4" t="s">
         <v>25</v>
@@ -44726,7 +44729,7 @@
         <v>678</v>
       </c>
       <c r="G531" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H531" s="4" t="s">
         <v>25</v>
@@ -44806,7 +44809,7 @@
         <v>678</v>
       </c>
       <c r="G532" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H532" s="4" t="s">
         <v>25</v>
@@ -45126,7 +45129,7 @@
         <v>678</v>
       </c>
       <c r="G536" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H536" s="4" t="s">
         <v>25</v>
@@ -45206,7 +45209,7 @@
         <v>678</v>
       </c>
       <c r="G537" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H537" s="4" t="s">
         <v>25</v>
@@ -45286,7 +45289,7 @@
         <v>678</v>
       </c>
       <c r="G538" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H538" s="4" t="s">
         <v>25</v>
@@ -45366,7 +45369,7 @@
         <v>678</v>
       </c>
       <c r="G539" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H539" s="4" t="s">
         <v>25</v>
@@ -45446,7 +45449,7 @@
         <v>678</v>
       </c>
       <c r="G540" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H540" s="4" t="s">
         <v>25</v>
@@ -45526,7 +45529,7 @@
         <v>678</v>
       </c>
       <c r="G541" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H541" s="4" t="s">
         <v>25</v>

--- a/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
+++ b/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A758A497-A60E-430F-8B7B-099332ECFB33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B2ADF1-D93A-4E7C-A48F-B01B840A49A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11996" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11996" uniqueCount="682">
   <si>
     <t>Test Case</t>
   </si>
@@ -2819,9 +2819,6 @@
   </si>
   <si>
     <t>november</t>
-  </si>
-  <si>
-    <t>october</t>
   </si>
 </sst>
 </file>
@@ -3196,9 +3193,9 @@
   <dimension ref="A1:Z541"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="91" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="91" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H541" sqref="H541"/>
+      <selection pane="bottomLeft" activeCell="J433" sqref="J433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10317,7 +10314,7 @@
         <v>210</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>211</v>
@@ -10329,7 +10326,7 @@
         <v>678</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>25</v>
@@ -10397,7 +10394,7 @@
         <v>212</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>213</v>
@@ -10409,7 +10406,7 @@
         <v>678</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>25</v>
@@ -10477,7 +10474,7 @@
         <v>214</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>215</v>
@@ -10489,7 +10486,7 @@
         <v>678</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>25</v>
@@ -10797,7 +10794,7 @@
         <v>222</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>223</v>
@@ -10809,7 +10806,7 @@
         <v>678</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>25</v>
@@ -10877,7 +10874,7 @@
         <v>224</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>225</v>
@@ -10889,7 +10886,7 @@
         <v>678</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>25</v>
@@ -10957,7 +10954,7 @@
         <v>226</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>227</v>
@@ -10969,7 +10966,7 @@
         <v>678</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>25</v>
@@ -11277,7 +11274,7 @@
         <v>234</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>235</v>
@@ -11289,7 +11286,7 @@
         <v>678</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>25</v>
@@ -11357,7 +11354,7 @@
         <v>236</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>237</v>
@@ -11369,7 +11366,7 @@
         <v>678</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>25</v>
@@ -11437,7 +11434,7 @@
         <v>238</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>239</v>
@@ -11449,7 +11446,7 @@
         <v>678</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>25</v>
@@ -11517,7 +11514,7 @@
         <v>240</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>241</v>
@@ -11529,7 +11526,7 @@
         <v>678</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>25</v>
@@ -11597,7 +11594,7 @@
         <v>242</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>243</v>
@@ -11609,7 +11606,7 @@
         <v>678</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>25</v>
@@ -11677,7 +11674,7 @@
         <v>244</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>245</v>
@@ -11689,7 +11686,7 @@
         <v>678</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>25</v>
@@ -27237,7 +27234,7 @@
         <v>210</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>444</v>
@@ -27249,7 +27246,7 @@
         <v>678</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H308" s="4" t="s">
         <v>25</v>
@@ -27317,7 +27314,7 @@
         <v>212</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>445</v>
@@ -27329,7 +27326,7 @@
         <v>678</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H309" s="4" t="s">
         <v>25</v>
@@ -27397,7 +27394,7 @@
         <v>214</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>446</v>
@@ -27409,7 +27406,7 @@
         <v>678</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H310" s="4" t="s">
         <v>25</v>
@@ -27717,7 +27714,7 @@
         <v>222</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>450</v>
@@ -27729,7 +27726,7 @@
         <v>678</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H314" s="4" t="s">
         <v>25</v>
@@ -27797,7 +27794,7 @@
         <v>224</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>451</v>
@@ -27809,7 +27806,7 @@
         <v>678</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H315" s="4" t="s">
         <v>25</v>
@@ -27877,7 +27874,7 @@
         <v>226</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>452</v>
@@ -27889,7 +27886,7 @@
         <v>678</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H316" s="4" t="s">
         <v>25</v>
@@ -28197,7 +28194,7 @@
         <v>234</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>456</v>
@@ -28209,7 +28206,7 @@
         <v>678</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H320" s="4" t="s">
         <v>25</v>
@@ -28277,7 +28274,7 @@
         <v>236</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>457</v>
@@ -28289,7 +28286,7 @@
         <v>678</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H321" s="4" t="s">
         <v>25</v>
@@ -28357,7 +28354,7 @@
         <v>238</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>458</v>
@@ -28369,7 +28366,7 @@
         <v>678</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H322" s="4" t="s">
         <v>25</v>
@@ -28437,7 +28434,7 @@
         <v>240</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>459</v>
@@ -28449,7 +28446,7 @@
         <v>678</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H323" s="4" t="s">
         <v>25</v>
@@ -28517,7 +28514,7 @@
         <v>242</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>460</v>
@@ -28529,7 +28526,7 @@
         <v>678</v>
       </c>
       <c r="G324" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H324" s="4" t="s">
         <v>25</v>
@@ -28597,7 +28594,7 @@
         <v>244</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>461</v>
@@ -28609,7 +28606,7 @@
         <v>678</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H325" s="4" t="s">
         <v>25</v>
@@ -35709,7 +35706,7 @@
         <v>678</v>
       </c>
       <c r="G416" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H416" s="4" t="s">
         <v>25</v>
@@ -35789,7 +35786,7 @@
         <v>678</v>
       </c>
       <c r="G417" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H417" s="4" t="s">
         <v>25</v>
@@ -35869,7 +35866,7 @@
         <v>678</v>
       </c>
       <c r="G418" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H418" s="4" t="s">
         <v>25</v>
@@ -36189,7 +36186,7 @@
         <v>678</v>
       </c>
       <c r="G422" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H422" s="4" t="s">
         <v>25</v>
@@ -36269,7 +36266,7 @@
         <v>678</v>
       </c>
       <c r="G423" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H423" s="4" t="s">
         <v>25</v>
@@ -36349,7 +36346,7 @@
         <v>678</v>
       </c>
       <c r="G424" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H424" s="4" t="s">
         <v>25</v>
@@ -36669,7 +36666,7 @@
         <v>678</v>
       </c>
       <c r="G428" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H428" s="4" t="s">
         <v>25</v>
@@ -36749,7 +36746,7 @@
         <v>678</v>
       </c>
       <c r="G429" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H429" s="4" t="s">
         <v>25</v>
@@ -36829,7 +36826,7 @@
         <v>678</v>
       </c>
       <c r="G430" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H430" s="4" t="s">
         <v>25</v>
@@ -36909,7 +36906,7 @@
         <v>678</v>
       </c>
       <c r="G431" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H431" s="4" t="s">
         <v>25</v>
@@ -36989,7 +36986,7 @@
         <v>678</v>
       </c>
       <c r="G432" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H432" s="4" t="s">
         <v>25</v>
@@ -37069,7 +37066,7 @@
         <v>678</v>
       </c>
       <c r="G433" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H433" s="4" t="s">
         <v>25</v>
@@ -44157,7 +44154,7 @@
         <v>210</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D524" s="4" t="s">
         <v>660</v>
@@ -44169,7 +44166,7 @@
         <v>678</v>
       </c>
       <c r="G524" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H524" s="4" t="s">
         <v>25</v>
@@ -44237,7 +44234,7 @@
         <v>212</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D525" s="4" t="s">
         <v>661</v>
@@ -44249,7 +44246,7 @@
         <v>678</v>
       </c>
       <c r="G525" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H525" s="4" t="s">
         <v>25</v>
@@ -44317,7 +44314,7 @@
         <v>214</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D526" s="4" t="s">
         <v>662</v>
@@ -44329,7 +44326,7 @@
         <v>678</v>
       </c>
       <c r="G526" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H526" s="4" t="s">
         <v>25</v>
@@ -44637,7 +44634,7 @@
         <v>222</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D530" s="4" t="s">
         <v>666</v>
@@ -44649,7 +44646,7 @@
         <v>678</v>
       </c>
       <c r="G530" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H530" s="4" t="s">
         <v>25</v>
@@ -44717,7 +44714,7 @@
         <v>224</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D531" s="4" t="s">
         <v>667</v>
@@ -44729,7 +44726,7 @@
         <v>678</v>
       </c>
       <c r="G531" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H531" s="4" t="s">
         <v>25</v>
@@ -44797,7 +44794,7 @@
         <v>226</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D532" s="4" t="s">
         <v>668</v>
@@ -44809,7 +44806,7 @@
         <v>678</v>
       </c>
       <c r="G532" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H532" s="4" t="s">
         <v>25</v>
@@ -45117,7 +45114,7 @@
         <v>234</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D536" s="4" t="s">
         <v>672</v>
@@ -45129,7 +45126,7 @@
         <v>678</v>
       </c>
       <c r="G536" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H536" s="4" t="s">
         <v>25</v>
@@ -45197,7 +45194,7 @@
         <v>236</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D537" s="4" t="s">
         <v>673</v>
@@ -45209,7 +45206,7 @@
         <v>678</v>
       </c>
       <c r="G537" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H537" s="4" t="s">
         <v>25</v>
@@ -45277,7 +45274,7 @@
         <v>238</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D538" s="4" t="s">
         <v>674</v>
@@ -45289,7 +45286,7 @@
         <v>678</v>
       </c>
       <c r="G538" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H538" s="4" t="s">
         <v>25</v>
@@ -45357,7 +45354,7 @@
         <v>240</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D539" s="4" t="s">
         <v>675</v>
@@ -45369,7 +45366,7 @@
         <v>678</v>
       </c>
       <c r="G539" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H539" s="4" t="s">
         <v>25</v>
@@ -45437,7 +45434,7 @@
         <v>242</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D540" s="4" t="s">
         <v>676</v>
@@ -45449,7 +45446,7 @@
         <v>678</v>
       </c>
       <c r="G540" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H540" s="4" t="s">
         <v>25</v>
@@ -45517,7 +45514,7 @@
         <v>244</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D541" s="4" t="s">
         <v>677</v>
@@ -45529,7 +45526,7 @@
         <v>678</v>
       </c>
       <c r="G541" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H541" s="4" t="s">
         <v>25</v>

--- a/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
+++ b/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B2ADF1-D93A-4E7C-A48F-B01B840A49A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BAC44D-F68F-4931-9231-90257338A2CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11996" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11996" uniqueCount="683">
   <si>
     <t>Test Case</t>
   </si>
@@ -2819,6 +2819,9 @@
   </si>
   <si>
     <t>november</t>
+  </si>
+  <si>
+    <t>october</t>
   </si>
 </sst>
 </file>
@@ -3193,9 +3196,9 @@
   <dimension ref="A1:Z541"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="91" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="91" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J433" sqref="J433"/>
+      <selection pane="bottomLeft" activeCell="G92" sqref="G92:G541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10314,7 +10317,7 @@
         <v>210</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>211</v>
@@ -10326,7 +10329,7 @@
         <v>678</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>25</v>
@@ -10394,7 +10397,7 @@
         <v>212</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>213</v>
@@ -10406,7 +10409,7 @@
         <v>678</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>25</v>
@@ -10474,7 +10477,7 @@
         <v>214</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>215</v>
@@ -10486,7 +10489,7 @@
         <v>678</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>25</v>
@@ -10794,7 +10797,7 @@
         <v>222</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>223</v>
@@ -10806,7 +10809,7 @@
         <v>678</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>25</v>
@@ -10874,7 +10877,7 @@
         <v>224</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>225</v>
@@ -10886,7 +10889,7 @@
         <v>678</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>25</v>
@@ -10954,7 +10957,7 @@
         <v>226</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>227</v>
@@ -10966,7 +10969,7 @@
         <v>678</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>25</v>
@@ -11274,7 +11277,7 @@
         <v>234</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>235</v>
@@ -11286,7 +11289,7 @@
         <v>678</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>25</v>
@@ -11354,7 +11357,7 @@
         <v>236</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>237</v>
@@ -11366,7 +11369,7 @@
         <v>678</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>25</v>
@@ -11434,7 +11437,7 @@
         <v>238</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>239</v>
@@ -11446,7 +11449,7 @@
         <v>678</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>25</v>
@@ -11514,7 +11517,7 @@
         <v>240</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>241</v>
@@ -11526,7 +11529,7 @@
         <v>678</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>25</v>
@@ -11594,7 +11597,7 @@
         <v>242</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>243</v>
@@ -11606,7 +11609,7 @@
         <v>678</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>25</v>
@@ -11674,7 +11677,7 @@
         <v>244</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>245</v>
@@ -11686,7 +11689,7 @@
         <v>678</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>25</v>
@@ -27234,7 +27237,7 @@
         <v>210</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>444</v>
@@ -27246,7 +27249,7 @@
         <v>678</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H308" s="4" t="s">
         <v>25</v>
@@ -27314,7 +27317,7 @@
         <v>212</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>445</v>
@@ -27326,7 +27329,7 @@
         <v>678</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H309" s="4" t="s">
         <v>25</v>
@@ -27394,7 +27397,7 @@
         <v>214</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>446</v>
@@ -27406,7 +27409,7 @@
         <v>678</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H310" s="4" t="s">
         <v>25</v>
@@ -27714,7 +27717,7 @@
         <v>222</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>450</v>
@@ -27726,7 +27729,7 @@
         <v>678</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H314" s="4" t="s">
         <v>25</v>
@@ -27794,7 +27797,7 @@
         <v>224</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>451</v>
@@ -27806,7 +27809,7 @@
         <v>678</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H315" s="4" t="s">
         <v>25</v>
@@ -27874,7 +27877,7 @@
         <v>226</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>452</v>
@@ -27886,7 +27889,7 @@
         <v>678</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H316" s="4" t="s">
         <v>25</v>
@@ -28194,7 +28197,7 @@
         <v>234</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>456</v>
@@ -28206,7 +28209,7 @@
         <v>678</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H320" s="4" t="s">
         <v>25</v>
@@ -28274,7 +28277,7 @@
         <v>236</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>457</v>
@@ -28286,7 +28289,7 @@
         <v>678</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H321" s="4" t="s">
         <v>25</v>
@@ -28354,7 +28357,7 @@
         <v>238</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>458</v>
@@ -28366,7 +28369,7 @@
         <v>678</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H322" s="4" t="s">
         <v>25</v>
@@ -28434,7 +28437,7 @@
         <v>240</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>459</v>
@@ -28446,7 +28449,7 @@
         <v>678</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H323" s="4" t="s">
         <v>25</v>
@@ -28514,7 +28517,7 @@
         <v>242</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>460</v>
@@ -28526,7 +28529,7 @@
         <v>678</v>
       </c>
       <c r="G324" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H324" s="4" t="s">
         <v>25</v>
@@ -28594,7 +28597,7 @@
         <v>244</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>461</v>
@@ -28606,7 +28609,7 @@
         <v>678</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H325" s="4" t="s">
         <v>25</v>
@@ -35706,7 +35709,7 @@
         <v>678</v>
       </c>
       <c r="G416" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H416" s="4" t="s">
         <v>25</v>
@@ -35786,7 +35789,7 @@
         <v>678</v>
       </c>
       <c r="G417" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H417" s="4" t="s">
         <v>25</v>
@@ -35866,7 +35869,7 @@
         <v>678</v>
       </c>
       <c r="G418" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H418" s="4" t="s">
         <v>25</v>
@@ -36186,7 +36189,7 @@
         <v>678</v>
       </c>
       <c r="G422" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H422" s="4" t="s">
         <v>25</v>
@@ -36266,7 +36269,7 @@
         <v>678</v>
       </c>
       <c r="G423" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H423" s="4" t="s">
         <v>25</v>
@@ -36346,7 +36349,7 @@
         <v>678</v>
       </c>
       <c r="G424" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H424" s="4" t="s">
         <v>25</v>
@@ -36666,7 +36669,7 @@
         <v>678</v>
       </c>
       <c r="G428" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H428" s="4" t="s">
         <v>25</v>
@@ -36746,7 +36749,7 @@
         <v>678</v>
       </c>
       <c r="G429" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H429" s="4" t="s">
         <v>25</v>
@@ -36826,7 +36829,7 @@
         <v>678</v>
       </c>
       <c r="G430" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H430" s="4" t="s">
         <v>25</v>
@@ -36906,7 +36909,7 @@
         <v>678</v>
       </c>
       <c r="G431" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H431" s="4" t="s">
         <v>25</v>
@@ -36986,7 +36989,7 @@
         <v>678</v>
       </c>
       <c r="G432" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H432" s="4" t="s">
         <v>25</v>
@@ -37066,7 +37069,7 @@
         <v>678</v>
       </c>
       <c r="G433" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H433" s="4" t="s">
         <v>25</v>
@@ -44154,7 +44157,7 @@
         <v>210</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D524" s="4" t="s">
         <v>660</v>
@@ -44166,7 +44169,7 @@
         <v>678</v>
       </c>
       <c r="G524" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H524" s="4" t="s">
         <v>25</v>
@@ -44234,7 +44237,7 @@
         <v>212</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D525" s="4" t="s">
         <v>661</v>
@@ -44246,7 +44249,7 @@
         <v>678</v>
       </c>
       <c r="G525" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H525" s="4" t="s">
         <v>25</v>
@@ -44314,7 +44317,7 @@
         <v>214</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D526" s="4" t="s">
         <v>662</v>
@@ -44326,7 +44329,7 @@
         <v>678</v>
       </c>
       <c r="G526" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H526" s="4" t="s">
         <v>25</v>
@@ -44634,7 +44637,7 @@
         <v>222</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D530" s="4" t="s">
         <v>666</v>
@@ -44646,7 +44649,7 @@
         <v>678</v>
       </c>
       <c r="G530" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H530" s="4" t="s">
         <v>25</v>
@@ -44714,7 +44717,7 @@
         <v>224</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D531" s="4" t="s">
         <v>667</v>
@@ -44726,7 +44729,7 @@
         <v>678</v>
       </c>
       <c r="G531" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H531" s="4" t="s">
         <v>25</v>
@@ -44794,7 +44797,7 @@
         <v>226</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D532" s="4" t="s">
         <v>668</v>
@@ -44806,7 +44809,7 @@
         <v>678</v>
       </c>
       <c r="G532" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H532" s="4" t="s">
         <v>25</v>
@@ -45114,7 +45117,7 @@
         <v>234</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D536" s="4" t="s">
         <v>672</v>
@@ -45126,7 +45129,7 @@
         <v>678</v>
       </c>
       <c r="G536" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H536" s="4" t="s">
         <v>25</v>
@@ -45194,7 +45197,7 @@
         <v>236</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D537" s="4" t="s">
         <v>673</v>
@@ -45206,7 +45209,7 @@
         <v>678</v>
       </c>
       <c r="G537" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H537" s="4" t="s">
         <v>25</v>
@@ -45274,7 +45277,7 @@
         <v>238</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D538" s="4" t="s">
         <v>674</v>
@@ -45286,7 +45289,7 @@
         <v>678</v>
       </c>
       <c r="G538" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H538" s="4" t="s">
         <v>25</v>
@@ -45354,7 +45357,7 @@
         <v>240</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D539" s="4" t="s">
         <v>675</v>
@@ -45366,7 +45369,7 @@
         <v>678</v>
       </c>
       <c r="G539" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H539" s="4" t="s">
         <v>25</v>
@@ -45434,7 +45437,7 @@
         <v>242</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D540" s="4" t="s">
         <v>676</v>
@@ -45446,7 +45449,7 @@
         <v>678</v>
       </c>
       <c r="G540" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H540" s="4" t="s">
         <v>25</v>
@@ -45514,7 +45517,7 @@
         <v>244</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D541" s="4" t="s">
         <v>677</v>
@@ -45526,7 +45529,7 @@
         <v>678</v>
       </c>
       <c r="G541" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H541" s="4" t="s">
         <v>25</v>

--- a/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
+++ b/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BAC44D-F68F-4931-9231-90257338A2CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB09D75-0B04-49D1-9ECD-873FAABD245A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2821,7 +2821,7 @@
     <t>november</t>
   </si>
   <si>
-    <t>october</t>
+    <t>september</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
+++ b/leave/src/main/resources/TestData/Accural/WorkingDays.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2436FC-EE43-469A-A69D-EE2C5856622D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226B9286-CC48-404B-883D-3C9A1D1B2F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="1116" windowWidth="22572" windowHeight="11844" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leave_Balance" sheetId="3" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13421" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13421" uniqueCount="693">
   <si>
     <t>Test Case</t>
   </si>
@@ -2822,9 +2822,6 @@
     <t>november</t>
   </si>
   <si>
-    <t>calender</t>
-  </si>
-  <si>
     <t>Use Multiple allotment restrictions</t>
   </si>
   <si>
@@ -2844,9 +2841,6 @@
   </si>
   <si>
     <t>denominatorValue</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>150</t>
@@ -3245,10 +3239,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AB541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="91" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AA92" sqref="AA92:AA541"/>
+      <selection pane="bottomLeft" activeCell="F541" sqref="F541:G541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3339,10 +3333,10 @@
         <v>41</v>
       </c>
       <c r="AA1" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="237.6" hidden="1">
@@ -10382,10 +10376,10 @@
         <v>18</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>25</v>
@@ -10445,7 +10439,7 @@
         <v>22</v>
       </c>
       <c r="AA92" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB92">
         <v>200</v>
@@ -10468,10 +10462,10 @@
         <v>18</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>25</v>
@@ -10531,7 +10525,7 @@
         <v>22</v>
       </c>
       <c r="AA93" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB93">
         <v>200</v>
@@ -10554,10 +10548,10 @@
         <v>18</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>25</v>
@@ -10617,7 +10611,7 @@
         <v>22</v>
       </c>
       <c r="AA94" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB94">
         <v>200</v>
@@ -10880,10 +10874,10 @@
         <v>18</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>25</v>
@@ -10943,7 +10937,7 @@
         <v>22</v>
       </c>
       <c r="AA98" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB98">
         <v>200</v>
@@ -10966,10 +10960,10 @@
         <v>18</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>25</v>
@@ -11029,7 +11023,7 @@
         <v>22</v>
       </c>
       <c r="AA99" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB99">
         <v>200</v>
@@ -11052,10 +11046,10 @@
         <v>18</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>25</v>
@@ -11115,7 +11109,7 @@
         <v>22</v>
       </c>
       <c r="AA100" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB100">
         <v>200</v>
@@ -11378,10 +11372,10 @@
         <v>18</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>25</v>
@@ -11441,7 +11435,7 @@
         <v>22</v>
       </c>
       <c r="AA104" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB104">
         <v>200</v>
@@ -11464,10 +11458,10 @@
         <v>18</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>25</v>
@@ -11527,7 +11521,7 @@
         <v>22</v>
       </c>
       <c r="AA105" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB105">
         <v>200</v>
@@ -11550,10 +11544,10 @@
         <v>18</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>25</v>
@@ -11613,7 +11607,7 @@
         <v>22</v>
       </c>
       <c r="AA106" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB106">
         <v>200</v>
@@ -11636,10 +11630,10 @@
         <v>18</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>25</v>
@@ -11699,7 +11693,7 @@
         <v>22</v>
       </c>
       <c r="AA107" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB107">
         <v>200</v>
@@ -11722,10 +11716,10 @@
         <v>18</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>25</v>
@@ -11785,7 +11779,7 @@
         <v>22</v>
       </c>
       <c r="AA108" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB108">
         <v>200</v>
@@ -11808,10 +11802,10 @@
         <v>18</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>25</v>
@@ -11871,7 +11865,7 @@
         <v>22</v>
       </c>
       <c r="AA109" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB109">
         <v>200</v>
@@ -27374,10 +27368,10 @@
         <v>12</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H308" s="4" t="s">
         <v>25</v>
@@ -27437,7 +27431,7 @@
         <v>22</v>
       </c>
       <c r="AA308" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB308">
         <v>200</v>
@@ -27460,10 +27454,10 @@
         <v>365</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H309" s="4" t="s">
         <v>25</v>
@@ -27523,7 +27517,7 @@
         <v>22</v>
       </c>
       <c r="AA309" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB309">
         <v>200</v>
@@ -27546,10 +27540,10 @@
         <v>18</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H310" s="4" t="s">
         <v>25</v>
@@ -27609,7 +27603,7 @@
         <v>22</v>
       </c>
       <c r="AA310" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB310">
         <v>200</v>
@@ -27872,10 +27866,10 @@
         <v>18</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H314" s="4" t="s">
         <v>25</v>
@@ -27935,7 +27929,7 @@
         <v>22</v>
       </c>
       <c r="AA314" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB314">
         <v>200</v>
@@ -27958,10 +27952,10 @@
         <v>18</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H315" s="4" t="s">
         <v>25</v>
@@ -28021,7 +28015,7 @@
         <v>22</v>
       </c>
       <c r="AA315" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB315">
         <v>200</v>
@@ -28044,10 +28038,10 @@
         <v>18</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H316" s="4" t="s">
         <v>25</v>
@@ -28107,7 +28101,7 @@
         <v>22</v>
       </c>
       <c r="AA316" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB316">
         <v>200</v>
@@ -28370,10 +28364,10 @@
         <v>18</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H320" s="4" t="s">
         <v>25</v>
@@ -28433,7 +28427,7 @@
         <v>22</v>
       </c>
       <c r="AA320" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB320">
         <v>200</v>
@@ -28456,10 +28450,10 @@
         <v>18</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H321" s="4" t="s">
         <v>25</v>
@@ -28519,7 +28513,7 @@
         <v>22</v>
       </c>
       <c r="AA321" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB321">
         <v>200</v>
@@ -28542,10 +28536,10 @@
         <v>18</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H322" s="4" t="s">
         <v>25</v>
@@ -28605,7 +28599,7 @@
         <v>22</v>
       </c>
       <c r="AA322" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB322">
         <v>200</v>
@@ -28628,10 +28622,10 @@
         <v>18</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H323" s="4" t="s">
         <v>25</v>
@@ -28691,7 +28685,7 @@
         <v>22</v>
       </c>
       <c r="AA323" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB323">
         <v>200</v>
@@ -28714,10 +28708,10 @@
         <v>18</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G324" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H324" s="4" t="s">
         <v>25</v>
@@ -28777,7 +28771,7 @@
         <v>22</v>
       </c>
       <c r="AA324" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB324">
         <v>200</v>
@@ -28800,10 +28794,10 @@
         <v>18</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H325" s="4" t="s">
         <v>25</v>
@@ -28863,7 +28857,7 @@
         <v>22</v>
       </c>
       <c r="AA325" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB325">
         <v>200</v>
@@ -35906,10 +35900,10 @@
         <v>12</v>
       </c>
       <c r="F416" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G416" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H416" s="4" t="s">
         <v>25</v>
@@ -35969,7 +35963,7 @@
         <v>22</v>
       </c>
       <c r="AA416" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB416">
         <v>200</v>
@@ -35992,10 +35986,10 @@
         <v>365</v>
       </c>
       <c r="F417" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G417" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H417" s="4" t="s">
         <v>25</v>
@@ -36055,7 +36049,7 @@
         <v>22</v>
       </c>
       <c r="AA417" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB417">
         <v>200</v>
@@ -36078,10 +36072,10 @@
         <v>18</v>
       </c>
       <c r="F418" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G418" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H418" s="4" t="s">
         <v>25</v>
@@ -36141,7 +36135,7 @@
         <v>22</v>
       </c>
       <c r="AA418" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB418">
         <v>200</v>
@@ -36404,10 +36398,10 @@
         <v>18</v>
       </c>
       <c r="F422" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G422" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H422" s="4" t="s">
         <v>25</v>
@@ -36467,7 +36461,7 @@
         <v>22</v>
       </c>
       <c r="AA422" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB422">
         <v>200</v>
@@ -36490,10 +36484,10 @@
         <v>18</v>
       </c>
       <c r="F423" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G423" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H423" s="4" t="s">
         <v>25</v>
@@ -36553,7 +36547,7 @@
         <v>22</v>
       </c>
       <c r="AA423" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB423">
         <v>200</v>
@@ -36576,10 +36570,10 @@
         <v>18</v>
       </c>
       <c r="F424" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G424" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H424" s="4" t="s">
         <v>25</v>
@@ -36639,7 +36633,7 @@
         <v>22</v>
       </c>
       <c r="AA424" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB424">
         <v>200</v>
@@ -36902,10 +36896,10 @@
         <v>18</v>
       </c>
       <c r="F428" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G428" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H428" s="4" t="s">
         <v>25</v>
@@ -36965,7 +36959,7 @@
         <v>22</v>
       </c>
       <c r="AA428" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB428">
         <v>200</v>
@@ -36988,10 +36982,10 @@
         <v>18</v>
       </c>
       <c r="F429" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G429" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H429" s="4" t="s">
         <v>25</v>
@@ -37051,7 +37045,7 @@
         <v>22</v>
       </c>
       <c r="AA429" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB429">
         <v>200</v>
@@ -37074,10 +37068,10 @@
         <v>18</v>
       </c>
       <c r="F430" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G430" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H430" s="4" t="s">
         <v>25</v>
@@ -37137,7 +37131,7 @@
         <v>22</v>
       </c>
       <c r="AA430" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB430">
         <v>200</v>
@@ -37160,10 +37154,10 @@
         <v>18</v>
       </c>
       <c r="F431" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G431" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H431" s="4" t="s">
         <v>25</v>
@@ -37223,7 +37217,7 @@
         <v>22</v>
       </c>
       <c r="AA431" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB431">
         <v>200</v>
@@ -37246,10 +37240,10 @@
         <v>18</v>
       </c>
       <c r="F432" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G432" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H432" s="4" t="s">
         <v>25</v>
@@ -37309,7 +37303,7 @@
         <v>22</v>
       </c>
       <c r="AA432" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB432">
         <v>200</v>
@@ -37332,10 +37326,10 @@
         <v>18</v>
       </c>
       <c r="F433" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G433" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H433" s="4" t="s">
         <v>25</v>
@@ -37395,7 +37389,7 @@
         <v>22</v>
       </c>
       <c r="AA433" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB433">
         <v>200</v>
@@ -44438,10 +44432,10 @@
         <v>12</v>
       </c>
       <c r="F524" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G524" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H524" s="4" t="s">
         <v>25</v>
@@ -44501,7 +44495,7 @@
         <v>22</v>
       </c>
       <c r="AA524" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB524">
         <v>200</v>
@@ -44524,10 +44518,10 @@
         <v>365</v>
       </c>
       <c r="F525" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G525" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H525" s="4" t="s">
         <v>25</v>
@@ -44587,7 +44581,7 @@
         <v>22</v>
       </c>
       <c r="AA525" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB525">
         <v>200</v>
@@ -44610,10 +44604,10 @@
         <v>18</v>
       </c>
       <c r="F526" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G526" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H526" s="4" t="s">
         <v>25</v>
@@ -44673,7 +44667,7 @@
         <v>22</v>
       </c>
       <c r="AA526" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB526">
         <v>200</v>
@@ -44936,10 +44930,10 @@
         <v>18</v>
       </c>
       <c r="F530" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G530" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H530" s="4" t="s">
         <v>25</v>
@@ -44999,7 +44993,7 @@
         <v>22</v>
       </c>
       <c r="AA530" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB530">
         <v>200</v>
@@ -45022,10 +45016,10 @@
         <v>18</v>
       </c>
       <c r="F531" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G531" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H531" s="4" t="s">
         <v>25</v>
@@ -45085,7 +45079,7 @@
         <v>22</v>
       </c>
       <c r="AA531" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB531">
         <v>200</v>
@@ -45108,10 +45102,10 @@
         <v>18</v>
       </c>
       <c r="F532" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G532" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H532" s="4" t="s">
         <v>25</v>
@@ -45171,7 +45165,7 @@
         <v>22</v>
       </c>
       <c r="AA532" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB532">
         <v>200</v>
@@ -45434,10 +45428,10 @@
         <v>18</v>
       </c>
       <c r="F536" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G536" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H536" s="4" t="s">
         <v>25</v>
@@ -45497,7 +45491,7 @@
         <v>22</v>
       </c>
       <c r="AA536" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB536">
         <v>200</v>
@@ -45520,10 +45514,10 @@
         <v>18</v>
       </c>
       <c r="F537" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G537" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H537" s="4" t="s">
         <v>25</v>
@@ -45583,7 +45577,7 @@
         <v>22</v>
       </c>
       <c r="AA537" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB537">
         <v>200</v>
@@ -45606,10 +45600,10 @@
         <v>18</v>
       </c>
       <c r="F538" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G538" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H538" s="4" t="s">
         <v>25</v>
@@ -45669,7 +45663,7 @@
         <v>22</v>
       </c>
       <c r="AA538" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB538">
         <v>200</v>
@@ -45692,10 +45686,10 @@
         <v>18</v>
       </c>
       <c r="F539" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G539" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H539" s="4" t="s">
         <v>25</v>
@@ -45755,7 +45749,7 @@
         <v>22</v>
       </c>
       <c r="AA539" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB539">
         <v>200</v>
@@ -45778,10 +45772,10 @@
         <v>18</v>
       </c>
       <c r="F540" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G540" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H540" s="4" t="s">
         <v>25</v>
@@ -45841,7 +45835,7 @@
         <v>22</v>
       </c>
       <c r="AA540" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB540">
         <v>200</v>
@@ -45864,10 +45858,10 @@
         <v>18</v>
       </c>
       <c r="F541" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G541" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H541" s="4" t="s">
         <v>25</v>
@@ -45927,7 +45921,7 @@
         <v>22</v>
       </c>
       <c r="AA541" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AB541">
         <v>200</v>
@@ -45964,8 +45958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF069CDF-8354-45F8-9D8B-03F6CCEB2C04}">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AE1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -46054,19 +46048,19 @@
         <v>41</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>685</v>
-      </c>
       <c r="AD1" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="AE1" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="409.6">
@@ -46086,10 +46080,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>25</v>
@@ -46152,16 +46146,16 @@
         <v>25</v>
       </c>
       <c r="AB2" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC2" t="s">
         <v>686</v>
       </c>
-      <c r="AC2" t="s">
-        <v>687</v>
-      </c>
       <c r="AD2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="409.6">
@@ -46181,10 +46175,10 @@
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>25</v>
@@ -46247,16 +46241,16 @@
         <v>25</v>
       </c>
       <c r="AB3" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC3" t="s">
         <v>686</v>
       </c>
-      <c r="AC3" t="s">
-        <v>687</v>
-      </c>
       <c r="AD3" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="409.6">
@@ -46276,10 +46270,10 @@
         <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>25</v>
@@ -46342,16 +46336,16 @@
         <v>25</v>
       </c>
       <c r="AB4" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC4" t="s">
         <v>686</v>
       </c>
-      <c r="AC4" t="s">
-        <v>687</v>
-      </c>
       <c r="AD4" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="409.6">
@@ -46371,10 +46365,10 @@
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>25</v>
@@ -46437,16 +46431,16 @@
         <v>25</v>
       </c>
       <c r="AB5" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC5" t="s">
         <v>686</v>
       </c>
-      <c r="AC5" t="s">
-        <v>687</v>
-      </c>
       <c r="AD5" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE5" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="409.6">
@@ -46466,10 +46460,10 @@
         <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>25</v>
@@ -46532,16 +46526,16 @@
         <v>25</v>
       </c>
       <c r="AB6" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC6" t="s">
         <v>686</v>
       </c>
-      <c r="AC6" t="s">
-        <v>687</v>
-      </c>
       <c r="AD6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="409.6">
@@ -46561,10 +46555,10 @@
         <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>25</v>
@@ -46627,16 +46621,16 @@
         <v>25</v>
       </c>
       <c r="AB7" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC7" t="s">
         <v>686</v>
       </c>
-      <c r="AC7" t="s">
-        <v>687</v>
-      </c>
       <c r="AD7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE7" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="409.6">
@@ -46656,10 +46650,10 @@
         <v>18</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>25</v>
@@ -46722,16 +46716,16 @@
         <v>25</v>
       </c>
       <c r="AB8" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC8" t="s">
         <v>686</v>
       </c>
-      <c r="AC8" t="s">
-        <v>687</v>
-      </c>
       <c r="AD8" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="409.6">
@@ -46751,10 +46745,10 @@
         <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>25</v>
@@ -46817,16 +46811,16 @@
         <v>25</v>
       </c>
       <c r="AB9" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC9" t="s">
         <v>686</v>
       </c>
-      <c r="AC9" t="s">
-        <v>687</v>
-      </c>
       <c r="AD9" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE9" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="409.6">
@@ -46846,10 +46840,10 @@
         <v>18</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>25</v>
@@ -46912,16 +46906,16 @@
         <v>25</v>
       </c>
       <c r="AB10" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC10" t="s">
         <v>686</v>
       </c>
-      <c r="AC10" t="s">
-        <v>687</v>
-      </c>
       <c r="AD10" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="409.6">
@@ -46941,10 +46935,10 @@
         <v>18</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>25</v>
@@ -47007,16 +47001,16 @@
         <v>25</v>
       </c>
       <c r="AB11" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC11" t="s">
         <v>686</v>
       </c>
-      <c r="AC11" t="s">
-        <v>687</v>
-      </c>
       <c r="AD11" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE11" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="409.6">
@@ -47036,10 +47030,10 @@
         <v>18</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>25</v>
@@ -47102,16 +47096,16 @@
         <v>25</v>
       </c>
       <c r="AB12" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC12" t="s">
         <v>686</v>
       </c>
-      <c r="AC12" t="s">
-        <v>687</v>
-      </c>
       <c r="AD12" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE12" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="409.6">
@@ -47131,10 +47125,10 @@
         <v>18</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>25</v>
@@ -47197,16 +47191,16 @@
         <v>25</v>
       </c>
       <c r="AB13" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC13" t="s">
         <v>686</v>
       </c>
-      <c r="AC13" t="s">
-        <v>687</v>
-      </c>
       <c r="AD13" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE13" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="409.6">
@@ -47226,10 +47220,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>25</v>
@@ -47292,16 +47286,16 @@
         <v>25</v>
       </c>
       <c r="AB14" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC14" t="s">
         <v>686</v>
       </c>
-      <c r="AC14" t="s">
-        <v>687</v>
-      </c>
       <c r="AD14" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE14" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="409.6">
@@ -47321,10 +47315,10 @@
         <v>365</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>25</v>
@@ -47387,16 +47381,16 @@
         <v>25</v>
       </c>
       <c r="AB15" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC15" t="s">
         <v>686</v>
       </c>
-      <c r="AC15" t="s">
-        <v>687</v>
-      </c>
       <c r="AD15" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE15" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="409.6">
@@ -47416,10 +47410,10 @@
         <v>18</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>25</v>
@@ -47482,16 +47476,16 @@
         <v>25</v>
       </c>
       <c r="AB16" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC16" t="s">
         <v>686</v>
       </c>
-      <c r="AC16" t="s">
-        <v>687</v>
-      </c>
       <c r="AD16" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE16" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="409.6">
@@ -47511,10 +47505,10 @@
         <v>18</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>25</v>
@@ -47577,16 +47571,16 @@
         <v>25</v>
       </c>
       <c r="AB17" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC17" t="s">
         <v>686</v>
       </c>
-      <c r="AC17" t="s">
-        <v>687</v>
-      </c>
       <c r="AD17" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE17" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="409.6">
@@ -47606,10 +47600,10 @@
         <v>18</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>25</v>
@@ -47672,16 +47666,16 @@
         <v>25</v>
       </c>
       <c r="AB18" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC18" t="s">
         <v>686</v>
       </c>
-      <c r="AC18" t="s">
-        <v>687</v>
-      </c>
       <c r="AD18" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="409.6">
@@ -47701,10 +47695,10 @@
         <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>25</v>
@@ -47767,16 +47761,16 @@
         <v>25</v>
       </c>
       <c r="AB19" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC19" t="s">
         <v>686</v>
       </c>
-      <c r="AC19" t="s">
-        <v>687</v>
-      </c>
       <c r="AD19" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE19" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="409.6">
@@ -47796,10 +47790,10 @@
         <v>18</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>25</v>
@@ -47862,16 +47856,16 @@
         <v>25</v>
       </c>
       <c r="AB20" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC20" t="s">
         <v>686</v>
       </c>
-      <c r="AC20" t="s">
-        <v>687</v>
-      </c>
       <c r="AD20" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE20" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="409.6">
@@ -47891,10 +47885,10 @@
         <v>18</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>25</v>
@@ -47957,16 +47951,16 @@
         <v>25</v>
       </c>
       <c r="AB21" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC21" t="s">
         <v>686</v>
       </c>
-      <c r="AC21" t="s">
-        <v>687</v>
-      </c>
       <c r="AD21" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="409.6">
@@ -47986,10 +47980,10 @@
         <v>18</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>25</v>
@@ -48052,16 +48046,16 @@
         <v>25</v>
       </c>
       <c r="AB22" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC22" t="s">
         <v>686</v>
       </c>
-      <c r="AC22" t="s">
-        <v>687</v>
-      </c>
       <c r="AD22" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE22" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="409.6">
@@ -48081,10 +48075,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>25</v>
@@ -48147,16 +48141,16 @@
         <v>25</v>
       </c>
       <c r="AB23" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC23" t="s">
         <v>686</v>
       </c>
-      <c r="AC23" t="s">
-        <v>687</v>
-      </c>
       <c r="AD23" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE23" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="409.6">
@@ -48176,10 +48170,10 @@
         <v>18</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>25</v>
@@ -48242,16 +48236,16 @@
         <v>25</v>
       </c>
       <c r="AB24" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC24" t="s">
         <v>686</v>
       </c>
-      <c r="AC24" t="s">
-        <v>687</v>
-      </c>
       <c r="AD24" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE24" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="409.6">
@@ -48271,10 +48265,10 @@
         <v>18</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>25</v>
@@ -48337,16 +48331,16 @@
         <v>25</v>
       </c>
       <c r="AB25" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC25" t="s">
         <v>686</v>
       </c>
-      <c r="AC25" t="s">
-        <v>687</v>
-      </c>
       <c r="AD25" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE25" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="409.6">
@@ -48366,10 +48360,10 @@
         <v>12</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>25</v>
@@ -48432,16 +48426,16 @@
         <v>25</v>
       </c>
       <c r="AB26" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC26" t="s">
         <v>686</v>
       </c>
-      <c r="AC26" t="s">
-        <v>687</v>
-      </c>
       <c r="AD26" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE26" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="409.6">
@@ -48461,10 +48455,10 @@
         <v>365</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>25</v>
@@ -48527,16 +48521,16 @@
         <v>25</v>
       </c>
       <c r="AB27" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC27" t="s">
         <v>686</v>
       </c>
-      <c r="AC27" t="s">
-        <v>687</v>
-      </c>
       <c r="AD27" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE27" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="409.6">
@@ -48556,10 +48550,10 @@
         <v>18</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>25</v>
@@ -48622,16 +48616,16 @@
         <v>25</v>
       </c>
       <c r="AB28" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC28" t="s">
         <v>686</v>
       </c>
-      <c r="AC28" t="s">
-        <v>687</v>
-      </c>
       <c r="AD28" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE28" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="409.6">
@@ -48651,10 +48645,10 @@
         <v>18</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>25</v>
@@ -48717,16 +48711,16 @@
         <v>25</v>
       </c>
       <c r="AB29" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC29" t="s">
         <v>686</v>
       </c>
-      <c r="AC29" t="s">
-        <v>687</v>
-      </c>
       <c r="AD29" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE29" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="409.6">
@@ -48746,10 +48740,10 @@
         <v>18</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>25</v>
@@ -48812,16 +48806,16 @@
         <v>25</v>
       </c>
       <c r="AB30" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC30" t="s">
         <v>686</v>
       </c>
-      <c r="AC30" t="s">
-        <v>687</v>
-      </c>
       <c r="AD30" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE30" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="409.6">
@@ -48841,10 +48835,10 @@
         <v>18</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>25</v>
@@ -48907,16 +48901,16 @@
         <v>25</v>
       </c>
       <c r="AB31" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC31" t="s">
         <v>686</v>
       </c>
-      <c r="AC31" t="s">
-        <v>687</v>
-      </c>
       <c r="AD31" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE31" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="409.6">
@@ -48936,10 +48930,10 @@
         <v>18</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>25</v>
@@ -49002,16 +48996,16 @@
         <v>25</v>
       </c>
       <c r="AB32" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC32" t="s">
         <v>686</v>
       </c>
-      <c r="AC32" t="s">
-        <v>687</v>
-      </c>
       <c r="AD32" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE32" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="409.6">
@@ -49031,10 +49025,10 @@
         <v>18</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>25</v>
@@ -49097,16 +49091,16 @@
         <v>25</v>
       </c>
       <c r="AB33" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC33" t="s">
         <v>686</v>
       </c>
-      <c r="AC33" t="s">
-        <v>687</v>
-      </c>
       <c r="AD33" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE33" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="409.6">
@@ -49126,10 +49120,10 @@
         <v>18</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>25</v>
@@ -49192,16 +49186,16 @@
         <v>25</v>
       </c>
       <c r="AB34" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC34" t="s">
         <v>686</v>
       </c>
-      <c r="AC34" t="s">
-        <v>687</v>
-      </c>
       <c r="AD34" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE34" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="409.6">
@@ -49221,10 +49215,10 @@
         <v>18</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>25</v>
@@ -49287,16 +49281,16 @@
         <v>25</v>
       </c>
       <c r="AB35" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC35" t="s">
         <v>686</v>
       </c>
-      <c r="AC35" t="s">
-        <v>687</v>
-      </c>
       <c r="AD35" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE35" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="409.6">
@@ -49316,10 +49310,10 @@
         <v>18</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>25</v>
@@ -49382,16 +49376,16 @@
         <v>25</v>
       </c>
       <c r="AB36" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC36" t="s">
         <v>686</v>
       </c>
-      <c r="AC36" t="s">
-        <v>687</v>
-      </c>
       <c r="AD36" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE36" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="409.6">
@@ -49411,10 +49405,10 @@
         <v>18</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>25</v>
@@ -49477,16 +49471,16 @@
         <v>25</v>
       </c>
       <c r="AB37" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC37" t="s">
         <v>686</v>
       </c>
-      <c r="AC37" t="s">
-        <v>687</v>
-      </c>
       <c r="AD37" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE37" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="409.6">
@@ -49506,10 +49500,10 @@
         <v>12</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>25</v>
@@ -49572,16 +49566,16 @@
         <v>25</v>
       </c>
       <c r="AB38" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC38" t="s">
         <v>686</v>
       </c>
-      <c r="AC38" t="s">
-        <v>687</v>
-      </c>
       <c r="AD38" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE38" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="409.6">
@@ -49601,10 +49595,10 @@
         <v>365</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>25</v>
@@ -49667,16 +49661,16 @@
         <v>25</v>
       </c>
       <c r="AB39" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC39" t="s">
         <v>686</v>
       </c>
-      <c r="AC39" t="s">
-        <v>687</v>
-      </c>
       <c r="AD39" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE39" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="409.6">
@@ -49696,10 +49690,10 @@
         <v>18</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>25</v>
@@ -49762,16 +49756,16 @@
         <v>25</v>
       </c>
       <c r="AB40" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC40" t="s">
         <v>686</v>
       </c>
-      <c r="AC40" t="s">
-        <v>687</v>
-      </c>
       <c r="AD40" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE40" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="409.6">
@@ -49791,10 +49785,10 @@
         <v>18</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>25</v>
@@ -49857,16 +49851,16 @@
         <v>25</v>
       </c>
       <c r="AB41" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC41" t="s">
         <v>686</v>
       </c>
-      <c r="AC41" t="s">
-        <v>687</v>
-      </c>
       <c r="AD41" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE41" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="42" spans="1:31" ht="409.6">
@@ -49886,10 +49880,10 @@
         <v>18</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>25</v>
@@ -49952,16 +49946,16 @@
         <v>25</v>
       </c>
       <c r="AB42" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC42" t="s">
         <v>686</v>
       </c>
-      <c r="AC42" t="s">
-        <v>687</v>
-      </c>
       <c r="AD42" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE42" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="409.6">
@@ -49981,10 +49975,10 @@
         <v>18</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>25</v>
@@ -50047,16 +50041,16 @@
         <v>25</v>
       </c>
       <c r="AB43" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC43" t="s">
         <v>686</v>
       </c>
-      <c r="AC43" t="s">
-        <v>687</v>
-      </c>
       <c r="AD43" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE43" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="409.6">
@@ -50076,10 +50070,10 @@
         <v>18</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>25</v>
@@ -50142,16 +50136,16 @@
         <v>25</v>
       </c>
       <c r="AB44" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC44" t="s">
         <v>686</v>
       </c>
-      <c r="AC44" t="s">
-        <v>687</v>
-      </c>
       <c r="AD44" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE44" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="45" spans="1:31" ht="409.6">
@@ -50171,10 +50165,10 @@
         <v>18</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>25</v>
@@ -50237,16 +50231,16 @@
         <v>25</v>
       </c>
       <c r="AB45" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC45" t="s">
         <v>686</v>
       </c>
-      <c r="AC45" t="s">
-        <v>687</v>
-      </c>
       <c r="AD45" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE45" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="46" spans="1:31" ht="409.6">
@@ -50266,10 +50260,10 @@
         <v>18</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>25</v>
@@ -50332,16 +50326,16 @@
         <v>25</v>
       </c>
       <c r="AB46" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC46" t="s">
         <v>686</v>
       </c>
-      <c r="AC46" t="s">
-        <v>687</v>
-      </c>
       <c r="AD46" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE46" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="409.6">
@@ -50361,10 +50355,10 @@
         <v>18</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>25</v>
@@ -50427,16 +50421,16 @@
         <v>25</v>
       </c>
       <c r="AB47" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC47" t="s">
         <v>686</v>
       </c>
-      <c r="AC47" t="s">
-        <v>687</v>
-      </c>
       <c r="AD47" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE47" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="48" spans="1:31" ht="409.6">
@@ -50456,10 +50450,10 @@
         <v>18</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>25</v>
@@ -50522,16 +50516,16 @@
         <v>25</v>
       </c>
       <c r="AB48" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC48" t="s">
         <v>686</v>
       </c>
-      <c r="AC48" t="s">
-        <v>687</v>
-      </c>
       <c r="AD48" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE48" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="409.6">
@@ -50551,10 +50545,10 @@
         <v>18</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>25</v>
@@ -50617,16 +50611,16 @@
         <v>25</v>
       </c>
       <c r="AB49" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC49" t="s">
         <v>686</v>
       </c>
-      <c r="AC49" t="s">
-        <v>687</v>
-      </c>
       <c r="AD49" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AE49" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
